--- a/0.3 Modelling/0.2 Outputs/0.4 Split Tests/split_evaluation.xlsx
+++ b/0.3 Modelling/0.2 Outputs/0.4 Split Tests/split_evaluation.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucd-my.sharepoint.com/personal/ronan_hearne_ucdconnect_ie/Documents/0.1 Current Year/5th Year/Project/0.04 Radiomics Approach/0.3 Modelling/0.2 Outputs/0.4 Split Tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_882E7A032B6BAEDCB5B570A083D3CDD63E18883B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3B8B9677-0E11-47EF-9C11-142FE911E377}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Gender" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <sheet name="Ground Truth" sheetId="6" r:id="rId6"/>
     <sheet name="Numeric Analysis" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -250,11 +244,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,26 +297,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -372,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,27 +386,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,24 +420,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -649,19 +595,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -672,18 +618,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4.9315068493150687</v>
+        <v>4.931506849315069</v>
       </c>
       <c r="C3">
-        <v>5.0684931506849313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.068493150684931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -694,12 +640,12 @@
         <v>31.93150684931507</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,12 +678,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -760,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -771,22 +717,22 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.40224986891653552</v>
+        <v>0.4022498689165355</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.52592961244397551</v>
+        <v>0.5259296124439755</v>
       </c>
       <c r="G13">
-        <v>7.4231207567564475E-2</v>
+        <v>0.07423120756756448</v>
       </c>
       <c r="H13">
-        <v>9.7204822493524357E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.09720482249352436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -794,25 +740,25 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14">
-        <v>0.40289653078970011</v>
+        <v>0.4028965307897001</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.52559714641311128</v>
+        <v>0.5255971464131113</v>
       </c>
       <c r="G14">
-        <v>7.4290851110772826E-2</v>
+        <v>0.07429085111077283</v>
       </c>
       <c r="H14">
-        <v>9.7282256292294478E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.09728225629229448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -823,22 +769,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.40488489489589702</v>
+        <v>0.404884894895897</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.52457721556244086</v>
+        <v>0.5245772155624409</v>
       </c>
       <c r="G15">
-        <v>7.447394459293441E-2</v>
+        <v>0.07447394459293441</v>
       </c>
       <c r="H15">
-        <v>9.7520376616379467E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.09752037661637947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -849,22 +795,22 @@
         <v>-0.5</v>
       </c>
       <c r="D16">
-        <v>0.40699565370976742</v>
+        <v>0.4069956537097674</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.52349834515064442</v>
+        <v>0.5234983451506444</v>
       </c>
       <c r="G16">
-        <v>7.4667817214185792E-2</v>
+        <v>0.07466781721418579</v>
       </c>
       <c r="H16">
-        <v>9.7773197226078468E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.09777319722607847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -875,22 +821,22 @@
         <v>-1</v>
       </c>
       <c r="D17">
-        <v>0.40965041569990901</v>
+        <v>0.409650415699909</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.52214699386891783</v>
+        <v>0.5221469938689178</v>
       </c>
       <c r="G17">
-        <v>7.4910943994424065E-2</v>
+        <v>0.07491094399442406</v>
       </c>
       <c r="H17">
-        <v>9.8091239166760325E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.09809123916676032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -901,19 +847,19 @@
         <v>-2</v>
       </c>
       <c r="D18">
-        <v>0.41665002007679369</v>
+        <v>0.4166500200767937</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.51861336994060592</v>
+        <v>0.5186133699406059</v>
       </c>
       <c r="G18">
-        <v>7.5548226462306273E-2</v>
+        <v>0.07554822646230627</v>
       </c>
       <c r="H18">
-        <v>9.8930125964994287E-2</v>
+        <v>0.09893012596499429</v>
       </c>
     </row>
   </sheetData>
@@ -922,19 +868,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -945,29 +891,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.49315068493150682</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="C3">
-        <v>0.50684931506849318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.5068493150684932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4">
-        <v>32.054794520547937</v>
+        <v>32.05479452054794</v>
       </c>
       <c r="C4">
-        <v>32.945205479452063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32.94520547945206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -978,12 +924,12 @@
         <v>3.547945205479452</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1027,12 +973,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1072,16 +1018,16 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.56418166833131622</v>
+        <v>0.5641816683313162</v>
       </c>
       <c r="G15">
-        <v>0.12522625795581249</v>
+        <v>0.1252262579558125</v>
       </c>
       <c r="H15">
         <v>0.1457060053961384</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1089,7 +1035,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D16">
         <v>1.203422468181079</v>
@@ -1098,16 +1044,16 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.54787329400352536</v>
+        <v>0.5478732940035254</v>
       </c>
       <c r="G16">
-        <v>0.12839485694587521</v>
+        <v>0.1283948569458752</v>
       </c>
       <c r="H16">
-        <v>0.15102695334587279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1510269533458728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1124,16 +1070,16 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.46502514785818649</v>
+        <v>0.4650251478581865</v>
       </c>
       <c r="G17">
-        <v>0.14483469967959581</v>
+        <v>0.1448346996795958</v>
       </c>
       <c r="H17">
-        <v>0.18126000207445711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1812600020744571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1147,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1173,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1193,19 +1139,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1216,29 +1162,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>14.301369863013701</v>
+        <v>14.3013698630137</v>
       </c>
       <c r="C3">
-        <v>14.698630136986299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14.6986301369863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4">
-        <v>10.356164383561641</v>
+        <v>10.35616438356164</v>
       </c>
       <c r="C4">
-        <v>10.643835616438359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10.64383561643836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1249,12 +1195,12 @@
         <v>11.65753424657534</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1276,7 +1222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1298,12 +1244,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1337,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>3.2257872565218899</v>
+        <v>3.22578725652189</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,13 +1292,13 @@
         <v>0.1993100496574042</v>
       </c>
       <c r="G15">
-        <v>0.21021148048500379</v>
+        <v>0.2102114804850038</v>
       </c>
       <c r="H15">
-        <v>0.34306002737830488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3430600273783049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1360,25 +1306,25 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D16">
-        <v>3.2370209542016619</v>
+        <v>3.237020954201662</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.19819369337344889</v>
+        <v>0.1981936933734489</v>
       </c>
       <c r="G16">
         <v>0.2105771896414306</v>
       </c>
       <c r="H16">
-        <v>0.34412770588299862</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3441277058829986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1398,13 +1344,13 @@
         <v>0.1944878616078855</v>
       </c>
       <c r="G17">
-        <v>0.21180150477797199</v>
+        <v>0.211801504777972</v>
       </c>
       <c r="H17">
         <v>0.3477125788182891</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1415,22 +1361,22 @@
         <v>-0.5</v>
       </c>
       <c r="D18">
-        <v>3.3170937822932038</v>
+        <v>3.317093782293204</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.19041547357578781</v>
+        <v>0.1904154735757878</v>
       </c>
       <c r="G18">
         <v>0.2131657591015301</v>
       </c>
       <c r="H18">
-        <v>0.35172600175399982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3517260017539998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1447,16 +1393,16 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.18524161922442181</v>
+        <v>0.1852416192244218</v>
       </c>
       <c r="G19">
-        <v>0.21492873977926849</v>
+        <v>0.2149287397792685</v>
       </c>
       <c r="H19">
-        <v>0.35694111447527033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.3569411144752703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1476,10 +1422,10 @@
         <v>0.1716765642329531</v>
       </c>
       <c r="G20">
-        <v>0.21972230374953439</v>
+        <v>0.2197223037495344</v>
       </c>
       <c r="H20">
-        <v>0.37127773955822091</v>
+        <v>0.3712777395582209</v>
       </c>
     </row>
   </sheetData>
@@ -1488,19 +1434,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1522,18 +1468,18 @@
         <v>14.19178082191781</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4">
-        <v>8.3835616438356162</v>
+        <v>8.383561643835616</v>
       </c>
       <c r="C4">
-        <v>8.6164383561643838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.616438356164384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1544,12 +1490,12 @@
         <v>14.19178082191781</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1582,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1593,12 +1539,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1632,22 +1578,22 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.18801732404673591</v>
+        <v>0.1880173240467359</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.91027487738435842</v>
+        <v>0.9102748773843584</v>
       </c>
       <c r="G15">
-        <v>5.0750170260425102E-2</v>
+        <v>0.0507501702604251</v>
       </c>
       <c r="H15">
-        <v>6.4400459318377457E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06440045931837746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1655,25 +1601,25 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D16">
-        <v>0.18804278690306009</v>
+        <v>0.1880427869030601</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.91026328835892178</v>
+        <v>0.9102632883589218</v>
       </c>
       <c r="G16">
-        <v>5.0753606647342332E-2</v>
+        <v>0.05075360664734233</v>
       </c>
       <c r="H16">
-        <v>6.4402451397128746E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06440245139712875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1690,16 +1636,16 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.91022026889183738</v>
+        <v>0.9102202688918374</v>
       </c>
       <c r="G17">
-        <v>5.0766361161651043E-2</v>
+        <v>0.05076636116165104</v>
       </c>
       <c r="H17">
-        <v>6.4409846483829414E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06440984648382941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -1710,22 +1656,22 @@
         <v>-0.5</v>
       </c>
       <c r="D18">
-        <v>0.18824641302354281</v>
+        <v>0.1882464130235428</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.91017061638559726</v>
+        <v>0.9101706163855973</v>
       </c>
       <c r="G18">
-        <v>5.0781079021854927E-2</v>
+        <v>0.05078107902185493</v>
       </c>
       <c r="H18">
-        <v>6.4418382418460429E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06441838241846043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1736,22 +1682,22 @@
         <v>-1</v>
       </c>
       <c r="D19">
-        <v>0.18838834415995889</v>
+        <v>0.1883883441599589</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.91010602790244555</v>
+        <v>0.9101060279024455</v>
       </c>
       <c r="G19">
-        <v>5.080021898345085E-2</v>
+        <v>0.05080021898345085</v>
       </c>
       <c r="H19">
-        <v>6.4429487046697154E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06442948704669715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1768,13 +1714,13 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.90993189550932496</v>
+        <v>0.909931895509325</v>
       </c>
       <c r="G20">
-        <v>5.0851791733507873E-2</v>
+        <v>0.05085179173350787</v>
       </c>
       <c r="H20">
-        <v>6.4459431064747053E-2</v>
+        <v>0.06445943106474705</v>
       </c>
     </row>
   </sheetData>
@@ -1783,19 +1729,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1806,62 +1752,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0.49315068493150682</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="C3">
-        <v>0.50684931506849318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5068493150684932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4">
-        <v>0.49315068493150682</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="C4">
-        <v>0.50684931506849318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5068493150684932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B5">
-        <v>6.4109589041095889</v>
+        <v>6.410958904109589</v>
       </c>
       <c r="C5">
-        <v>6.5890410958904111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.589041095890411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B6">
-        <v>0.49315068493150682</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="C6">
-        <v>0.50684931506849318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5068493150684932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B7">
-        <v>24.164383561643831</v>
+        <v>24.16438356164383</v>
       </c>
       <c r="C7">
-        <v>24.835616438356169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24.83561643835617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1872,23 +1818,23 @@
         <v>3.547945205479452</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B9">
-        <v>0.49315068493150682</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="C9">
-        <v>0.50684931506849318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5068493150684932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1899,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1910,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1921,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1932,7 +1878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1943,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1954,7 +1900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1965,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1976,12 +1922,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2004,7 +1950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2015,22 +1961,22 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>5.9858547715690564</v>
+        <v>5.985854771569056</v>
       </c>
       <c r="E23">
         <v>6</v>
       </c>
       <c r="F23">
-        <v>0.42477650875666673</v>
+        <v>0.4247765087566667</v>
       </c>
       <c r="G23">
-        <v>0.28635294754801999</v>
+        <v>0.28635294754802</v>
       </c>
       <c r="H23">
-        <v>0.40189319278777552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.4018931927877755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -2038,25 +1984,25 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D24">
-        <v>6.2248383329670904</v>
+        <v>6.22483833296709</v>
       </c>
       <c r="E24">
         <v>6</v>
       </c>
       <c r="F24">
-        <v>0.39848080588397039</v>
+        <v>0.3984808058839704</v>
       </c>
       <c r="G24">
         <v>0.292013283920185</v>
       </c>
       <c r="H24">
-        <v>0.41768176043754651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.4176817604375465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2067,22 +2013,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.5787614454474124</v>
+        <v>7.578761445447412</v>
       </c>
       <c r="E25">
         <v>6</v>
       </c>
       <c r="F25">
-        <v>0.27061618785381142</v>
+        <v>0.2706161878538114</v>
       </c>
       <c r="G25">
-        <v>0.32220901591612211</v>
+        <v>0.3222090159161221</v>
       </c>
       <c r="H25">
-        <v>0.50471157970961567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.5047115797096157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -2096,7 +2042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -2122,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -2142,19 +2088,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,18 +2111,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B3">
-        <v>4.4383561643835616</v>
+        <v>4.438356164383562</v>
       </c>
       <c r="C3">
-        <v>4.5616438356164384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.561643835616438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2184,15 +2130,15 @@
         <v>31.56164383561644</v>
       </c>
       <c r="C4">
-        <v>32.438356164383563</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32.43835616438356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2225,12 +2171,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +2199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2264,22 +2210,22 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>9.7430764097430858E-2</v>
+        <v>0.09743076409743086</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.75493487774104151</v>
+        <v>0.7549348777410415</v>
       </c>
       <c r="G13">
-        <v>3.6533108290079407E-2</v>
+        <v>0.03653310829007941</v>
       </c>
       <c r="H13">
-        <v>6.1234441717229027E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06123444171722903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2287,25 +2233,25 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D14">
-        <v>9.7485879501599482E-2</v>
+        <v>0.09748587950159948</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.75486779500044965</v>
+        <v>0.7548677950004496</v>
       </c>
       <c r="G14">
-        <v>3.6543439997778343E-2</v>
+        <v>0.03654343999777834</v>
       </c>
       <c r="H14">
-        <v>6.1240837217029331E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06124083721702933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2316,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.7641812727747967E-2</v>
+        <v>0.09764181272774797</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.75467811628893577</v>
+        <v>0.7546781162889358</v>
       </c>
       <c r="G15">
-        <v>3.6572654791008831E-2</v>
+        <v>0.03657265479100883</v>
       </c>
       <c r="H15">
-        <v>6.1258931687453999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.061258931687454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -2342,7 +2288,7 @@
         <v>-0.5</v>
       </c>
       <c r="D16">
-        <v>9.7798984259469535E-2</v>
+        <v>0.09779898425946953</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2351,13 +2297,13 @@
         <v>0.7544870994475541</v>
       </c>
       <c r="G16">
-        <v>3.6602077989417739E-2</v>
+        <v>0.03660207798941774</v>
       </c>
       <c r="H16">
-        <v>6.1277170206980543E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06127717020698054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -2368,22 +2314,22 @@
         <v>-1</v>
       </c>
       <c r="D17">
-        <v>9.7990889794291047E-2</v>
+        <v>0.09799088979429105</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.75425409731766457</v>
+        <v>0.7542540973176646</v>
       </c>
       <c r="G17">
-        <v>3.6637971506159821E-2</v>
+        <v>0.03663797150615982</v>
       </c>
       <c r="H17">
-        <v>6.1299439819178181E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.06129943981917818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -2394,19 +2340,19 @@
         <v>-2</v>
       </c>
       <c r="D18">
-        <v>9.8480015012209154E-2</v>
+        <v>0.09848001501220915</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.75366135655095334</v>
+        <v>0.7536613565509533</v>
       </c>
       <c r="G18">
-        <v>3.6729297591120792E-2</v>
+        <v>0.03672929759112079</v>
       </c>
       <c r="H18">
-        <v>6.1356202598457643E-2</v>
+        <v>0.06135620259845764</v>
       </c>
     </row>
   </sheetData>
@@ -2415,21 +2361,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2440,124 +2384,124 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>37</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>37</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="2">
-        <v>56.270270270270267</v>
-      </c>
-      <c r="C4" s="2">
-        <v>89.947297297297297</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4">
+        <v>56.27027027027027</v>
+      </c>
+      <c r="C4">
+        <v>89.9472972972973</v>
+      </c>
+      <c r="D4">
         <v>176.872972972973</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2">
-        <v>7.9149950819408064</v>
-      </c>
-      <c r="C5" s="2">
-        <v>27.873105182101479</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.6545066118902447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7.914995081940806</v>
+      </c>
+      <c r="C5">
+        <v>27.87310518210148</v>
+      </c>
+      <c r="D5">
+        <v>7.654506611890245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>44</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>50.1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>49</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>72.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>55</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>88.2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>59</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>96.5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>80</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>174</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
@@ -2568,124 +2512,124 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>36</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>36</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2">
-        <v>57.777777777777779</v>
-      </c>
-      <c r="C15" s="2">
-        <v>83.117916666666659</v>
-      </c>
-      <c r="D15" s="2">
-        <v>175.60888888888891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>57.77777777777778</v>
+      </c>
+      <c r="C15">
+        <v>83.11791666666666</v>
+      </c>
+      <c r="D15">
+        <v>175.6088888888889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2">
-        <v>9.2183392093032559</v>
-      </c>
-      <c r="C16" s="2">
-        <v>21.008865182346241</v>
-      </c>
-      <c r="D16" s="2">
-        <v>7.9702151889851862</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>9.218339209303256</v>
+      </c>
+      <c r="C16">
+        <v>21.00886518234624</v>
+      </c>
+      <c r="D16">
+        <v>7.970215188985186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>40</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>45.5</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>54</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>65</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>170.75</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>57.5</v>
       </c>
-      <c r="C19" s="2">
-        <v>83.15</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19">
+        <v>83.15000000000001</v>
+      </c>
+      <c r="D19">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>62.25</v>
       </c>
-      <c r="C20" s="2">
-        <v>95.966250000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <v>182.92500000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>95.96625</v>
+      </c>
+      <c r="D20">
+        <v>182.925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>82</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>151</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2723,7 +2667,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -2743,28 +2687,28 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.74874825920318255</v>
+        <v>0.7487482592031826</v>
       </c>
       <c r="H25">
-        <v>68.802257197467171</v>
+        <v>68.80225719746717</v>
       </c>
       <c r="I25" t="s">
         <v>68</v>
       </c>
       <c r="J25">
-        <v>0.45656108685097552</v>
+        <v>0.4565610868509755</v>
       </c>
       <c r="K25" t="s">
         <v>69</v>
       </c>
       <c r="L25">
-        <v>0.17379183133576309</v>
+        <v>0.1737918313357631</v>
       </c>
       <c r="M25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2784,28 +2728,28 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>-1.1842239139074171</v>
+        <v>-1.184223913907417</v>
       </c>
       <c r="H26">
-        <v>66.865855090126288</v>
+        <v>66.86585509012629</v>
       </c>
       <c r="I26" t="s">
         <v>68</v>
       </c>
       <c r="J26">
-        <v>0.24051696106990711</v>
+        <v>0.2405169610699071</v>
       </c>
       <c r="K26" t="s">
         <v>70</v>
       </c>
       <c r="L26">
-        <v>-0.27324562160476401</v>
+        <v>-0.273245621604764</v>
       </c>
       <c r="M26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2825,22 +2769,22 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>-0.69083699231891282</v>
+        <v>-0.6908369923189128</v>
       </c>
       <c r="H27">
-        <v>70.671723393916906</v>
+        <v>70.67172339391691</v>
       </c>
       <c r="I27" t="s">
         <v>68</v>
       </c>
       <c r="J27">
-        <v>0.49193089575519161</v>
+        <v>0.4919308957551916</v>
       </c>
       <c r="K27" t="s">
         <v>71</v>
       </c>
       <c r="L27">
-        <v>-0.16010327066247521</v>
+        <v>-0.1601032706624752</v>
       </c>
       <c r="M27" t="s">
         <v>45</v>
